--- a/Jogos_do_Dia/2023-02-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,331 +722,221 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44965.6875</v>
+        <v>44965.70833333334</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.99</v>
+        <v>1.51</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J3" t="n">
+        <v>22</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AB3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8</v>
-      </c>
       <c r="AC3" t="n">
-        <v>1.82</v>
+        <v>5.15</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>South America Copa Libertadores</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44965.70833333334</v>
+        <v>44965.875</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nacional Potosí</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CD El Nacional</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB4" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Manchester United</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Leeds United</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10</v>
-      </c>
       <c r="AC4" t="n">
-        <v>5.15</v>
+        <v>1.95</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>South America Copa Libertadores</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>44965.875</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Nacional Potosí</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CD El Nacional</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>
